--- a/Chinese-English.xlsx
+++ b/Chinese-English.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Project\原神角色分析\My-Genshin-char-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A74A70-B0A7-48B8-8316-5DA3EDE7C0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EBBC4-CFB4-411E-8263-EEB09609CE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="3100" windowWidth="16200" windowHeight="9970" xr2:uid="{13389BB2-ED6C-4777-A193-633C907CF790}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{13389BB2-ED6C-4777-A193-633C907CF790}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="人物中英文对照" sheetId="1" r:id="rId1"/>
+    <sheet name="辛焱" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>原神人物中英文对照</t>
   </si>
@@ -369,6 +371,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Fiery Rain</t>
+  </si>
+  <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>基础技能</t>
+  </si>
+  <si>
+    <t>E技能</t>
+  </si>
+  <si>
+    <t>Q技能</t>
+  </si>
+  <si>
+    <t>安珀</t>
   </si>
 </sst>
 </file>
@@ -408,13 +425,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,6 +439,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -730,10 +753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32407833-BFEF-4048-A3FF-691A585C62FE}">
+  <sheetPr>
+    <tabColor rgb="FFFFCCFF"/>
+  </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -750,17 +776,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -839,13 +865,13 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>6308</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>75</v>
       </c>
     </row>
@@ -859,7 +885,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
@@ -1175,4 +1201,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2E3DD8-46E0-4C4C-90D0-D5649C78BE35}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Chinese-English.xlsx
+++ b/Chinese-English.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Project\原神角色分析\My-Genshin-char-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EBBC4-CFB4-411E-8263-EEB09609CE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C60B05C-9B34-4005-93F6-8D21AF0934B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{13389BB2-ED6C-4777-A193-633C907CF790}"/>
+    <workbookView xWindow="2910" yWindow="3100" windowWidth="16200" windowHeight="9970" activeTab="1" xr2:uid="{13389BB2-ED6C-4777-A193-633C907CF790}"/>
   </bookViews>
   <sheets>
     <sheet name="人物中英文对照" sheetId="1" r:id="rId1"/>
-    <sheet name="辛焱" sheetId="2" r:id="rId2"/>
+    <sheet name="序号对照" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1211,7 +1210,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
